--- a/corre_ing_exp-censo_casen/P01.xlsx
+++ b/corre_ing_exp-censo_casen/P01.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L311"/>
+  <dimension ref="A1:K311"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -413,11 +413,6 @@
           <t>Operativo calle (no es vivienda)</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>ingresos_expandidos</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -455,9 +450,6 @@
       <c r="K2">
         <v>1</v>
       </c>
-      <c r="L2">
-        <v>71930106512.96095</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -492,9 +484,6 @@
       <c r="K3">
         <v>1</v>
       </c>
-      <c r="L3">
-        <v>33766585495.62615</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -529,9 +518,6 @@
       <c r="J4">
         <v>1</v>
       </c>
-      <c r="L4">
-        <v>4966851883.206897</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -563,9 +549,6 @@
       <c r="I5">
         <v>13</v>
       </c>
-      <c r="L5">
-        <v>3068247619.39394</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -603,9 +586,6 @@
       <c r="K6">
         <v>1</v>
       </c>
-      <c r="L6">
-        <v>133249367039.0582</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -640,9 +620,6 @@
       <c r="J7">
         <v>1</v>
       </c>
-      <c r="L7">
-        <v>4979702301.778846</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -680,9 +657,6 @@
       <c r="K8">
         <v>1</v>
       </c>
-      <c r="L8">
-        <v>5109282942.070588</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -720,9 +694,6 @@
       <c r="K9">
         <v>1</v>
       </c>
-      <c r="L9">
-        <v>71981127234.88228</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -757,9 +728,6 @@
       <c r="K10">
         <v>1</v>
       </c>
-      <c r="L10">
-        <v>4869699463.596639</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -794,9 +762,6 @@
       <c r="K11">
         <v>1</v>
       </c>
-      <c r="L11">
-        <v>7207910819.200001</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -828,9 +793,6 @@
       <c r="I12">
         <v>84</v>
       </c>
-      <c r="L12">
-        <v>3084818966.444444</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -865,9 +827,6 @@
       <c r="K13">
         <v>1</v>
       </c>
-      <c r="L13">
-        <v>52819016037.12282</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -899,9 +858,6 @@
       <c r="K14">
         <v>1</v>
       </c>
-      <c r="L14">
-        <v>5628052276.023623</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -936,9 +892,6 @@
       <c r="K15">
         <v>1</v>
       </c>
-      <c r="L15">
-        <v>4671058718.055119</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -967,9 +920,6 @@
       <c r="I16">
         <v>28</v>
       </c>
-      <c r="L16">
-        <v>3499391195.546219</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -998,9 +948,6 @@
       <c r="I17">
         <v>96</v>
       </c>
-      <c r="L17">
-        <v>4895805596.073299</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1038,9 +985,6 @@
       <c r="K18">
         <v>1</v>
       </c>
-      <c r="L18">
-        <v>16404810756.33491</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1060,9 +1004,6 @@
       <c r="I19">
         <v>8</v>
       </c>
-      <c r="L19">
-        <v>2035200054.303031</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1100,9 +1041,6 @@
       <c r="K20">
         <v>1</v>
       </c>
-      <c r="L20">
-        <v>3424422749.589041</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1137,9 +1075,6 @@
       <c r="K21">
         <v>1</v>
       </c>
-      <c r="L21">
-        <v>61749247281.99611</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1177,9 +1112,6 @@
       <c r="K22">
         <v>1</v>
       </c>
-      <c r="L22">
-        <v>61277269093.46808</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1208,9 +1140,6 @@
       <c r="I23">
         <v>15</v>
       </c>
-      <c r="L23">
-        <v>2855312920.114286</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1233,9 +1162,6 @@
       <c r="I24">
         <v>2</v>
       </c>
-      <c r="L24">
-        <v>908664019.3495146</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1267,9 +1193,6 @@
       <c r="I25">
         <v>23</v>
       </c>
-      <c r="L25">
-        <v>7058750372.576087</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1301,9 +1224,6 @@
       <c r="I26">
         <v>24</v>
       </c>
-      <c r="L26">
-        <v>8703433491.268818</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1329,9 +1249,6 @@
       <c r="I27">
         <v>6</v>
       </c>
-      <c r="L27">
-        <v>2122281843.75</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1366,9 +1283,6 @@
       <c r="K28">
         <v>1</v>
       </c>
-      <c r="L28">
-        <v>6098444925.615385</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1400,9 +1314,6 @@
       <c r="K29">
         <v>1</v>
       </c>
-      <c r="L29">
-        <v>7690585032.154762</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1440,9 +1351,6 @@
       <c r="K30">
         <v>1</v>
       </c>
-      <c r="L30">
-        <v>31197719080.43636</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1471,9 +1379,6 @@
       <c r="I31">
         <v>15</v>
       </c>
-      <c r="L31">
-        <v>3124505460.143885</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1496,9 +1401,6 @@
       <c r="I32">
         <v>7</v>
       </c>
-      <c r="L32">
-        <v>6930326683.601563</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1530,9 +1432,6 @@
       <c r="K33">
         <v>1</v>
       </c>
-      <c r="L33">
-        <v>2328107498.275862</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1570,9 +1469,6 @@
       <c r="K34">
         <v>1</v>
       </c>
-      <c r="L34">
-        <v>90946261553.23595</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1604,9 +1500,6 @@
       <c r="K35">
         <v>1</v>
       </c>
-      <c r="L35">
-        <v>9352095757.198114</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1638,9 +1531,6 @@
       <c r="I36">
         <v>22</v>
       </c>
-      <c r="L36">
-        <v>14075920020.51613</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1672,9 +1562,6 @@
       <c r="K37">
         <v>1</v>
       </c>
-      <c r="L37">
-        <v>5490274928.470588</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1712,9 +1599,6 @@
       <c r="K38">
         <v>1</v>
       </c>
-      <c r="L38">
-        <v>9839456902.653061</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1752,9 +1636,6 @@
       <c r="K39">
         <v>1</v>
       </c>
-      <c r="L39">
-        <v>118563074323.4049</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1792,9 +1673,6 @@
       <c r="K40">
         <v>1</v>
       </c>
-      <c r="L40">
-        <v>23711104773.96226</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1817,9 +1695,6 @@
       <c r="I41">
         <v>4</v>
       </c>
-      <c r="L41">
-        <v>3654416746.568808</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1845,9 +1720,6 @@
       <c r="I42">
         <v>6</v>
       </c>
-      <c r="L42">
-        <v>2855998928.260163</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1873,9 +1745,6 @@
       <c r="I43">
         <v>3</v>
       </c>
-      <c r="L43">
-        <v>4140022481.029412</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1910,9 +1779,6 @@
       <c r="K44">
         <v>1</v>
       </c>
-      <c r="L44">
-        <v>9183080280.182926</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1938,9 +1804,6 @@
       <c r="I45">
         <v>10</v>
       </c>
-      <c r="L45">
-        <v>5094117762.086957</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1966,9 +1829,6 @@
       <c r="I46">
         <v>8</v>
       </c>
-      <c r="L46">
-        <v>1921527703.835052</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1994,9 +1854,6 @@
       <c r="I47">
         <v>11</v>
       </c>
-      <c r="L47">
-        <v>2333781007.423077</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2025,9 +1882,6 @@
       <c r="I48">
         <v>7</v>
       </c>
-      <c r="L48">
-        <v>2160521990.508474</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2062,9 +1916,6 @@
       <c r="K49">
         <v>1</v>
       </c>
-      <c r="L49">
-        <v>26131733923.63206</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2099,9 +1950,6 @@
       <c r="K50">
         <v>1</v>
       </c>
-      <c r="L50">
-        <v>14297866792.26459</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2127,9 +1975,6 @@
       <c r="I51">
         <v>6</v>
       </c>
-      <c r="L51">
-        <v>4828872604</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2158,9 +2003,6 @@
       <c r="I52">
         <v>3</v>
       </c>
-      <c r="L52">
-        <v>7414857000.594059</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2195,9 +2037,6 @@
       <c r="K53">
         <v>1</v>
       </c>
-      <c r="L53">
-        <v>5749381300.30303</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2232,9 +2071,6 @@
       <c r="K54">
         <v>1</v>
       </c>
-      <c r="L54">
-        <v>22527241143.75</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2266,9 +2102,6 @@
       <c r="I55">
         <v>9</v>
       </c>
-      <c r="L55">
-        <v>5398446269.935897</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2297,9 +2130,6 @@
       <c r="I56">
         <v>17</v>
       </c>
-      <c r="L56">
-        <v>5569658994.018518</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2334,9 +2164,6 @@
       <c r="K57">
         <v>1</v>
       </c>
-      <c r="L57">
-        <v>4315799296.717172</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2371,9 +2198,6 @@
       <c r="K58">
         <v>1</v>
       </c>
-      <c r="L58">
-        <v>3816682339.925</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2402,9 +2226,6 @@
       <c r="I59">
         <v>3</v>
       </c>
-      <c r="L59">
-        <v>4408732520.253164</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2439,9 +2260,6 @@
       <c r="K60">
         <v>1</v>
       </c>
-      <c r="L60">
-        <v>23208536042.67962</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2473,9 +2291,6 @@
       <c r="I61">
         <v>6</v>
       </c>
-      <c r="L61">
-        <v>3264869971.962617</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2507,9 +2322,6 @@
       <c r="K62">
         <v>1</v>
       </c>
-      <c r="L62">
-        <v>7275684300.929293</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2532,9 +2344,6 @@
       <c r="I63">
         <v>2</v>
       </c>
-      <c r="L63">
-        <v>2385858927.961165</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -2560,9 +2369,6 @@
       <c r="I64">
         <v>15</v>
       </c>
-      <c r="L64">
-        <v>5187514898.172043</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2591,9 +2397,6 @@
       <c r="I65">
         <v>2</v>
       </c>
-      <c r="L65">
-        <v>3907844673.956141</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -2628,9 +2431,6 @@
       <c r="K66">
         <v>1</v>
       </c>
-      <c r="L66">
-        <v>52247193426.12401</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -2659,9 +2459,6 @@
       <c r="I67">
         <v>24</v>
       </c>
-      <c r="L67">
-        <v>14176705124.93939</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -2693,9 +2490,6 @@
       <c r="I68">
         <v>5</v>
       </c>
-      <c r="L68">
-        <v>5149662270.705882</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2730,9 +2524,6 @@
       <c r="K69">
         <v>1</v>
       </c>
-      <c r="L69">
-        <v>45800670898.62372</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -2764,9 +2555,6 @@
       <c r="I70">
         <v>136</v>
       </c>
-      <c r="L70">
-        <v>76977097284.23683</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -2789,9 +2577,6 @@
       <c r="I71">
         <v>4</v>
       </c>
-      <c r="L71">
-        <v>3758801352.418604</v>
-      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -2817,9 +2602,6 @@
       <c r="I72">
         <v>3</v>
       </c>
-      <c r="L72">
-        <v>1651985452.568807</v>
-      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -2845,9 +2627,6 @@
       <c r="I73">
         <v>3</v>
       </c>
-      <c r="L73">
-        <v>5466110794.724137</v>
-      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -2876,9 +2655,6 @@
       <c r="I74">
         <v>5</v>
       </c>
-      <c r="L74">
-        <v>6402533884</v>
-      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -2913,9 +2689,6 @@
       <c r="K75">
         <v>1</v>
       </c>
-      <c r="L75">
-        <v>10426820414.96124</v>
-      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -2944,9 +2717,6 @@
       <c r="I76">
         <v>9</v>
       </c>
-      <c r="L76">
-        <v>6894533313.684211</v>
-      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -2978,9 +2748,6 @@
       <c r="I77">
         <v>19</v>
       </c>
-      <c r="L77">
-        <v>16602037093.37979</v>
-      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -3009,9 +2776,6 @@
       <c r="K78">
         <v>1</v>
       </c>
-      <c r="L78">
-        <v>2863689033.286957</v>
-      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -3043,9 +2807,6 @@
       <c r="K79">
         <v>1</v>
       </c>
-      <c r="L79">
-        <v>7392597596.235023</v>
-      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3077,9 +2838,6 @@
       <c r="I80">
         <v>4</v>
       </c>
-      <c r="L80">
-        <v>4054025677.655172</v>
-      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3108,9 +2866,6 @@
       <c r="I81">
         <v>5</v>
       </c>
-      <c r="L81">
-        <v>3559462965.658537</v>
-      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -3136,9 +2891,6 @@
       <c r="I82">
         <v>8</v>
       </c>
-      <c r="L82">
-        <v>4616762518</v>
-      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -3161,9 +2913,6 @@
       <c r="I83">
         <v>7</v>
       </c>
-      <c r="L83">
-        <v>2741286093.46789</v>
-      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -3198,9 +2947,6 @@
       <c r="K84">
         <v>1</v>
       </c>
-      <c r="L84">
-        <v>17273974762.00696</v>
-      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -3232,9 +2978,6 @@
       <c r="K85">
         <v>1</v>
       </c>
-      <c r="L85">
-        <v>8078983811.428571</v>
-      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -3272,9 +3015,6 @@
       <c r="K86">
         <v>1</v>
       </c>
-      <c r="L86">
-        <v>13358975033.0606</v>
-      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -3306,9 +3046,6 @@
       <c r="I87">
         <v>21</v>
       </c>
-      <c r="L87">
-        <v>5643258336.30137</v>
-      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -3334,9 +3071,6 @@
       <c r="I88">
         <v>2</v>
       </c>
-      <c r="L88">
-        <v>891866685.5604396</v>
-      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -3362,9 +3096,6 @@
       <c r="I89">
         <v>9</v>
       </c>
-      <c r="L89">
-        <v>1881627117.402062</v>
-      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -3393,9 +3124,6 @@
       <c r="I90">
         <v>6</v>
       </c>
-      <c r="L90">
-        <v>2458260032.666667</v>
-      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -3415,9 +3143,6 @@
       <c r="I91">
         <v>6</v>
       </c>
-      <c r="L91">
-        <v>1475951352.909091</v>
-      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -3452,9 +3177,6 @@
       <c r="K92">
         <v>1</v>
       </c>
-      <c r="L92">
-        <v>24041131494.80337</v>
-      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -3477,9 +3199,6 @@
       <c r="I93">
         <v>3</v>
       </c>
-      <c r="L93">
-        <v>3691714536.714286</v>
-      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -3514,9 +3233,6 @@
       <c r="K94">
         <v>1</v>
       </c>
-      <c r="L94">
-        <v>9228754902.615894</v>
-      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -3539,9 +3255,6 @@
       <c r="I95">
         <v>5</v>
       </c>
-      <c r="L95">
-        <v>1611947197.148936</v>
-      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -3573,9 +3286,6 @@
       <c r="K96">
         <v>1</v>
       </c>
-      <c r="L96">
-        <v>4386786330.781955</v>
-      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -3598,9 +3308,6 @@
       <c r="I97">
         <v>1</v>
       </c>
-      <c r="L97">
-        <v>3079870842.831683</v>
-      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -3626,9 +3333,6 @@
       <c r="I98">
         <v>4</v>
       </c>
-      <c r="L98">
-        <v>2923796849.916667</v>
-      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -3651,9 +3355,6 @@
       <c r="I99">
         <v>3</v>
       </c>
-      <c r="L99">
-        <v>2102134220.106195</v>
-      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -3682,9 +3383,6 @@
       <c r="K100">
         <v>1</v>
       </c>
-      <c r="L100">
-        <v>11393463346.08911</v>
-      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -3716,9 +3414,6 @@
       <c r="I101">
         <v>224</v>
       </c>
-      <c r="L101">
-        <v>67732753814.36247</v>
-      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -3753,9 +3448,6 @@
       <c r="K102">
         <v>1</v>
       </c>
-      <c r="L102">
-        <v>12932986800.46154</v>
-      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -3781,9 +3473,6 @@
       <c r="I103">
         <v>4</v>
       </c>
-      <c r="L103">
-        <v>2662971119.569893</v>
-      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -3809,9 +3498,6 @@
       <c r="I104">
         <v>6</v>
       </c>
-      <c r="L104">
-        <v>866652109.6428572</v>
-      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -3843,9 +3529,6 @@
       <c r="I105">
         <v>6</v>
       </c>
-      <c r="L105">
-        <v>12182624190.14414</v>
-      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -3871,9 +3554,6 @@
       <c r="I106">
         <v>1</v>
       </c>
-      <c r="L106">
-        <v>1825700105</v>
-      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -3896,9 +3576,6 @@
       <c r="I107">
         <v>3</v>
       </c>
-      <c r="L107">
-        <v>1926795578.611111</v>
-      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -3915,9 +3592,6 @@
       <c r="F108">
         <v>25</v>
       </c>
-      <c r="L108">
-        <v>3126961589.596491</v>
-      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -3943,9 +3617,6 @@
       <c r="I109">
         <v>10</v>
       </c>
-      <c r="L109">
-        <v>10687595452.45794</v>
-      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -3974,9 +3645,6 @@
       <c r="I110">
         <v>1</v>
       </c>
-      <c r="L110">
-        <v>2294886655.941176</v>
-      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -4008,9 +3676,6 @@
       <c r="I111">
         <v>13</v>
       </c>
-      <c r="L111">
-        <v>9515918891.723927</v>
-      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -4033,9 +3698,6 @@
       <c r="I112">
         <v>6</v>
       </c>
-      <c r="L112">
-        <v>2234922252.131868</v>
-      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -4064,9 +3726,6 @@
       <c r="I113">
         <v>24</v>
       </c>
-      <c r="L113">
-        <v>1534908448.109589</v>
-      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -4098,9 +3757,6 @@
       <c r="I114">
         <v>42</v>
       </c>
-      <c r="L114">
-        <v>42117028332.96754</v>
-      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -4132,9 +3788,6 @@
       <c r="K115">
         <v>1</v>
       </c>
-      <c r="L115">
-        <v>2928781043.149606</v>
-      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -4166,9 +3819,6 @@
       <c r="I116">
         <v>26</v>
       </c>
-      <c r="L116">
-        <v>1741750147.631579</v>
-      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -4203,9 +3853,6 @@
       <c r="K117">
         <v>1</v>
       </c>
-      <c r="L117">
-        <v>12009998194.92896</v>
-      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -4234,9 +3881,6 @@
       <c r="K118">
         <v>1</v>
       </c>
-      <c r="L118">
-        <v>2845428741.428572</v>
-      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -4262,9 +3906,6 @@
       <c r="K119">
         <v>1</v>
       </c>
-      <c r="L119">
-        <v>4085560646.122807</v>
-      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -4287,9 +3928,6 @@
       <c r="I120">
         <v>3</v>
       </c>
-      <c r="L120">
-        <v>4611045339.2</v>
-      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -4318,9 +3956,6 @@
       <c r="I121">
         <v>11</v>
       </c>
-      <c r="L121">
-        <v>7579820260.516394</v>
-      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -4343,9 +3978,6 @@
       <c r="I122">
         <v>7</v>
       </c>
-      <c r="L122">
-        <v>943414066.0975609</v>
-      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -4383,9 +4015,6 @@
       <c r="K123">
         <v>1</v>
       </c>
-      <c r="L123">
-        <v>25291751487.41618</v>
-      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -4411,9 +4040,6 @@
       <c r="I124">
         <v>12</v>
       </c>
-      <c r="L124">
-        <v>4173410967.029703</v>
-      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -4439,9 +4065,6 @@
       <c r="I125">
         <v>6</v>
       </c>
-      <c r="L125">
-        <v>6597394824.942149</v>
-      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -4470,9 +4093,6 @@
       <c r="K126">
         <v>1</v>
       </c>
-      <c r="L126">
-        <v>11091040323.83133</v>
-      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -4498,9 +4118,6 @@
       <c r="I127">
         <v>6</v>
       </c>
-      <c r="L127">
-        <v>4508431050.108109</v>
-      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -4535,9 +4152,6 @@
       <c r="K128">
         <v>1</v>
       </c>
-      <c r="L128">
-        <v>12687530322.11688</v>
-      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -4563,9 +4177,6 @@
       <c r="I129">
         <v>3</v>
       </c>
-      <c r="L129">
-        <v>4251702731.259259</v>
-      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -4591,9 +4202,6 @@
       <c r="I130">
         <v>2</v>
       </c>
-      <c r="L130">
-        <v>4412680157.8125</v>
-      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -4631,9 +4239,6 @@
       <c r="K131">
         <v>1</v>
       </c>
-      <c r="L131">
-        <v>72227728923.48532</v>
-      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -4671,9 +4276,6 @@
       <c r="K132">
         <v>1</v>
       </c>
-      <c r="L132">
-        <v>32278209117.66126</v>
-      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -4708,9 +4310,6 @@
       <c r="K133">
         <v>1</v>
       </c>
-      <c r="L133">
-        <v>25641323295.63996</v>
-      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -4730,9 +4329,6 @@
       <c r="I134">
         <v>4</v>
       </c>
-      <c r="L134">
-        <v>2469551785.256198</v>
-      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -4758,9 +4354,6 @@
       <c r="K135">
         <v>1</v>
       </c>
-      <c r="L135">
-        <v>5651905803.349999</v>
-      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -4795,9 +4388,6 @@
       <c r="J136">
         <v>1</v>
       </c>
-      <c r="L136">
-        <v>12339953990.03219</v>
-      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -4832,9 +4422,6 @@
       <c r="K137">
         <v>1</v>
       </c>
-      <c r="L137">
-        <v>12561435650.57143</v>
-      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -4863,9 +4450,6 @@
       <c r="I138">
         <v>21</v>
       </c>
-      <c r="L138">
-        <v>36167321662.04082</v>
-      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -4897,9 +4481,6 @@
       <c r="I139">
         <v>4</v>
       </c>
-      <c r="L139">
-        <v>3582304722.907563</v>
-      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -4937,9 +4518,6 @@
       <c r="K140">
         <v>1</v>
       </c>
-      <c r="L140">
-        <v>48602104063.89241</v>
-      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -4977,9 +4555,6 @@
       <c r="K141">
         <v>1</v>
       </c>
-      <c r="L141">
-        <v>15133299927.21429</v>
-      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -5014,9 +4589,6 @@
       <c r="K142">
         <v>1</v>
       </c>
-      <c r="L142">
-        <v>26380344662.68812</v>
-      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -5048,9 +4620,6 @@
       <c r="K143">
         <v>1</v>
       </c>
-      <c r="L143">
-        <v>6534231082.263414</v>
-      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -5076,9 +4645,6 @@
       <c r="I144">
         <v>37</v>
       </c>
-      <c r="L144">
-        <v>11466769472.97797</v>
-      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -5110,9 +4676,6 @@
       <c r="K145">
         <v>1</v>
       </c>
-      <c r="L145">
-        <v>8327773342.247664</v>
-      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -5138,9 +4701,6 @@
       <c r="I146">
         <v>6</v>
       </c>
-      <c r="L146">
-        <v>1284670804.834951</v>
-      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -5172,9 +4732,6 @@
       <c r="I147">
         <v>9</v>
       </c>
-      <c r="L147">
-        <v>8488900056.187014</v>
-      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -5203,9 +4760,6 @@
       <c r="K148">
         <v>1</v>
       </c>
-      <c r="L148">
-        <v>4840107032.853108</v>
-      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -5234,9 +4788,6 @@
       <c r="J149">
         <v>1</v>
       </c>
-      <c r="L149">
-        <v>2305775205.712871</v>
-      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -5274,9 +4825,6 @@
       <c r="K150">
         <v>1</v>
       </c>
-      <c r="L150">
-        <v>60441208918.49519</v>
-      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -5305,9 +4853,6 @@
       <c r="J151">
         <v>1</v>
       </c>
-      <c r="L151">
-        <v>781935233.2765957</v>
-      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -5339,9 +4884,6 @@
       <c r="K152">
         <v>1</v>
       </c>
-      <c r="L152">
-        <v>6433682619.874373</v>
-      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -5370,9 +4912,6 @@
       <c r="I153">
         <v>11</v>
       </c>
-      <c r="L153">
-        <v>5024717381.801653</v>
-      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -5398,9 +4937,6 @@
       <c r="I154">
         <v>20</v>
       </c>
-      <c r="L154">
-        <v>7299407611.404624</v>
-      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -5432,9 +4968,6 @@
       <c r="K155">
         <v>1</v>
       </c>
-      <c r="L155">
-        <v>7697899431.045752</v>
-      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -5457,9 +4990,6 @@
       <c r="I156">
         <v>2</v>
       </c>
-      <c r="L156">
-        <v>1916060575.55914</v>
-      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -5482,9 +5012,6 @@
       <c r="I157">
         <v>2</v>
       </c>
-      <c r="L157">
-        <v>784682868</v>
-      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -5513,9 +5040,6 @@
       <c r="I158">
         <v>3</v>
       </c>
-      <c r="L158">
-        <v>1935917805.504132</v>
-      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -5538,9 +5062,6 @@
       <c r="I159">
         <v>3</v>
       </c>
-      <c r="L159">
-        <v>705390056</v>
-      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -5563,9 +5084,6 @@
       <c r="I160">
         <v>12</v>
       </c>
-      <c r="L160">
-        <v>3454949584.261682</v>
-      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -5588,9 +5106,6 @@
       <c r="I161">
         <v>6</v>
       </c>
-      <c r="L161">
-        <v>3035048396.831683</v>
-      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -5625,9 +5140,6 @@
       <c r="J162">
         <v>1</v>
       </c>
-      <c r="L162">
-        <v>4693613938.439025</v>
-      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -5665,9 +5177,6 @@
       <c r="K163">
         <v>1</v>
       </c>
-      <c r="L163">
-        <v>83174794799.05223</v>
-      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -5699,9 +5208,6 @@
       <c r="J164">
         <v>1</v>
       </c>
-      <c r="L164">
-        <v>5824543338.885417</v>
-      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -5739,9 +5245,6 @@
       <c r="K165">
         <v>1</v>
       </c>
-      <c r="L165">
-        <v>4330659433.269231</v>
-      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -5770,9 +5273,6 @@
       <c r="J166">
         <v>1</v>
       </c>
-      <c r="L166">
-        <v>1529109215.072072</v>
-      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -5801,9 +5301,6 @@
       <c r="I167">
         <v>7</v>
       </c>
-      <c r="L167">
-        <v>7518158340.131867</v>
-      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -5829,9 +5326,6 @@
       <c r="J168">
         <v>1</v>
       </c>
-      <c r="L168">
-        <v>2930258101.934426</v>
-      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -5863,9 +5357,6 @@
       <c r="I169">
         <v>7</v>
       </c>
-      <c r="L169">
-        <v>3670206244.848485</v>
-      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -5894,9 +5385,6 @@
       <c r="I170">
         <v>14</v>
       </c>
-      <c r="L170">
-        <v>11267725602.13907</v>
-      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -5925,9 +5413,6 @@
       <c r="I171">
         <v>7</v>
       </c>
-      <c r="L171">
-        <v>5049235444.787401</v>
-      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -5953,9 +5438,6 @@
       <c r="J172">
         <v>1</v>
       </c>
-      <c r="L172">
-        <v>1301137941.446808</v>
-      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -5984,9 +5466,6 @@
       <c r="I173">
         <v>11</v>
       </c>
-      <c r="L173">
-        <v>7867935675.862068</v>
-      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -6018,9 +5497,6 @@
       <c r="I174">
         <v>8</v>
       </c>
-      <c r="L174">
-        <v>21191399108.34192</v>
-      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -6049,9 +5525,6 @@
       <c r="I175">
         <v>1</v>
       </c>
-      <c r="L175">
-        <v>1799419623.697917</v>
-      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -6083,9 +5556,6 @@
       <c r="J176">
         <v>1</v>
       </c>
-      <c r="L176">
-        <v>6204576082.102041</v>
-      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -6120,9 +5590,6 @@
       <c r="J177">
         <v>1</v>
       </c>
-      <c r="L177">
-        <v>7443587942.360465</v>
-      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -6154,9 +5621,6 @@
       <c r="J178">
         <v>1</v>
       </c>
-      <c r="L178">
-        <v>2856420490.588235</v>
-      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -6185,9 +5649,6 @@
       <c r="I179">
         <v>3</v>
       </c>
-      <c r="L179">
-        <v>3380311967.727273</v>
-      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -6210,9 +5671,6 @@
       <c r="I180">
         <v>7</v>
       </c>
-      <c r="L180">
-        <v>2135976053.663717</v>
-      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -6244,9 +5702,6 @@
       <c r="I181">
         <v>7</v>
       </c>
-      <c r="L181">
-        <v>4860243130.698493</v>
-      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -6281,9 +5736,6 @@
       <c r="K182">
         <v>1</v>
       </c>
-      <c r="L182">
-        <v>13650235813.63636</v>
-      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -6312,9 +5764,6 @@
       <c r="J183">
         <v>1</v>
       </c>
-      <c r="L183">
-        <v>2940207311.456311</v>
-      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -6352,9 +5801,6 @@
       <c r="K184">
         <v>1</v>
       </c>
-      <c r="L184">
-        <v>14296297282.41379</v>
-      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -6383,9 +5829,6 @@
       <c r="I185">
         <v>12</v>
       </c>
-      <c r="L185">
-        <v>6098134776.373984</v>
-      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -6414,9 +5857,6 @@
       <c r="I186">
         <v>5</v>
       </c>
-      <c r="L186">
-        <v>4084643011.441667</v>
-      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -6442,9 +5882,6 @@
       <c r="I187">
         <v>2</v>
       </c>
-      <c r="L187">
-        <v>2072995480.576087</v>
-      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -6473,9 +5910,6 @@
       <c r="J188">
         <v>1</v>
       </c>
-      <c r="L188">
-        <v>2568496128.444445</v>
-      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -6501,9 +5935,6 @@
       <c r="I189">
         <v>8</v>
       </c>
-      <c r="L189">
-        <v>1547086779.615385</v>
-      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -6529,9 +5960,6 @@
       <c r="J190">
         <v>1</v>
       </c>
-      <c r="L190">
-        <v>2697526158.845361</v>
-      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -6560,9 +5988,6 @@
       <c r="I191">
         <v>9</v>
       </c>
-      <c r="L191">
-        <v>2757928012.735043</v>
-      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -6585,9 +6010,6 @@
       <c r="K192">
         <v>1</v>
       </c>
-      <c r="L192">
-        <v>2726714089.622642</v>
-      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -6616,9 +6038,6 @@
       <c r="J193">
         <v>1</v>
       </c>
-      <c r="L193">
-        <v>4863416658.964286</v>
-      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -6647,9 +6066,6 @@
       <c r="I194">
         <v>22</v>
       </c>
-      <c r="L194">
-        <v>7723760969.623825</v>
-      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -6687,9 +6103,6 @@
       <c r="K195">
         <v>1</v>
       </c>
-      <c r="L195">
-        <v>74854925754.32497</v>
-      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -6721,9 +6134,6 @@
       <c r="J196">
         <v>1</v>
       </c>
-      <c r="L196">
-        <v>9545646862.818182</v>
-      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -6749,9 +6159,6 @@
       <c r="I197">
         <v>3</v>
       </c>
-      <c r="L197">
-        <v>2742371891.25</v>
-      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -6786,9 +6193,6 @@
       <c r="K198">
         <v>1</v>
       </c>
-      <c r="L198">
-        <v>5188291726.32</v>
-      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -6820,9 +6224,6 @@
       <c r="K199">
         <v>1</v>
       </c>
-      <c r="L199">
-        <v>3980600731.207547</v>
-      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -6854,9 +6255,6 @@
       <c r="K200">
         <v>1</v>
       </c>
-      <c r="L200">
-        <v>4422233282.908257</v>
-      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -6882,9 +6280,6 @@
       <c r="I201">
         <v>9</v>
       </c>
-      <c r="L201">
-        <v>3825279049.960784</v>
-      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -6916,9 +6311,6 @@
       <c r="I202">
         <v>87</v>
       </c>
-      <c r="L202">
-        <v>13920663785.99293</v>
-      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -6953,9 +6345,6 @@
       <c r="K203">
         <v>1</v>
       </c>
-      <c r="L203">
-        <v>15304799117.87912</v>
-      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -6987,9 +6376,6 @@
       <c r="K204">
         <v>1</v>
       </c>
-      <c r="L204">
-        <v>8960055930.012501</v>
-      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -7018,9 +6404,6 @@
       <c r="I205">
         <v>7</v>
       </c>
-      <c r="L205">
-        <v>3559637516.804123</v>
-      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -7046,9 +6429,6 @@
       <c r="I206">
         <v>31</v>
       </c>
-      <c r="L206">
-        <v>4477578922.854546</v>
-      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -7074,9 +6454,6 @@
       <c r="K207">
         <v>1</v>
       </c>
-      <c r="L207">
-        <v>987644626.8478261</v>
-      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -7111,9 +6488,6 @@
       <c r="K208">
         <v>1</v>
       </c>
-      <c r="L208">
-        <v>6579532876.493617</v>
-      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -7142,9 +6516,6 @@
       <c r="I209">
         <v>8</v>
       </c>
-      <c r="L209">
-        <v>2572844097.46789</v>
-      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -7170,9 +6541,6 @@
       <c r="I210">
         <v>14</v>
       </c>
-      <c r="L210">
-        <v>2996397097.674419</v>
-      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -7207,9 +6575,6 @@
       <c r="K211">
         <v>1</v>
       </c>
-      <c r="L211">
-        <v>43850482485.64465</v>
-      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -7232,9 +6597,6 @@
       <c r="I212">
         <v>6</v>
       </c>
-      <c r="L212">
-        <v>2359078293.539823</v>
-      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -7266,9 +6628,6 @@
       <c r="K213">
         <v>1</v>
       </c>
-      <c r="L213">
-        <v>6161043438.428572</v>
-      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -7294,9 +6653,6 @@
       <c r="I214">
         <v>9</v>
       </c>
-      <c r="L214">
-        <v>2689725002.827869</v>
-      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -7325,9 +6681,6 @@
       <c r="I215">
         <v>5</v>
       </c>
-      <c r="L215">
-        <v>3896715111.067416</v>
-      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -7350,9 +6703,6 @@
       <c r="I216">
         <v>1</v>
       </c>
-      <c r="L216">
-        <v>1674503801.2</v>
-      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -7378,9 +6728,6 @@
       <c r="I217">
         <v>3</v>
       </c>
-      <c r="L217">
-        <v>1962995434.6875</v>
-      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -7418,9 +6765,6 @@
       <c r="K218">
         <v>1</v>
       </c>
-      <c r="L218">
-        <v>18912283227.07657</v>
-      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -7452,9 +6796,6 @@
       <c r="J219">
         <v>1</v>
       </c>
-      <c r="L219">
-        <v>7375332217.99749</v>
-      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -7486,9 +6827,6 @@
       <c r="J220">
         <v>1</v>
       </c>
-      <c r="L220">
-        <v>1642095148.673913</v>
-      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -7511,9 +6849,6 @@
       <c r="I221">
         <v>31</v>
       </c>
-      <c r="L221">
-        <v>1224029691.6</v>
-      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -7539,9 +6874,6 @@
       <c r="I222">
         <v>26</v>
       </c>
-      <c r="L222">
-        <v>1622211455.561798</v>
-      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -7579,9 +6911,6 @@
       <c r="K223">
         <v>1</v>
       </c>
-      <c r="L223">
-        <v>51552266922.41262</v>
-      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -7613,9 +6942,6 @@
       <c r="J224">
         <v>1</v>
       </c>
-      <c r="L224">
-        <v>3034981682.37037</v>
-      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -7647,9 +6973,6 @@
       <c r="K225">
         <v>1</v>
       </c>
-      <c r="L225">
-        <v>7233637634.744361</v>
-      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -7687,9 +7010,6 @@
       <c r="K226">
         <v>1</v>
       </c>
-      <c r="L226">
-        <v>182367246207.9157</v>
-      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -7724,9 +7044,6 @@
       <c r="K227">
         <v>1</v>
       </c>
-      <c r="L227">
-        <v>22371586545.63779</v>
-      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -7761,9 +7078,6 @@
       <c r="K228">
         <v>1</v>
       </c>
-      <c r="L228">
-        <v>35892031152.78008</v>
-      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -7798,9 +7112,6 @@
       <c r="K229">
         <v>1</v>
       </c>
-      <c r="L229">
-        <v>39397353401.58996</v>
-      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -7835,9 +7146,6 @@
       <c r="K230">
         <v>1</v>
       </c>
-      <c r="L230">
-        <v>45770170398.31683</v>
-      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -7875,9 +7183,6 @@
       <c r="K231">
         <v>1</v>
       </c>
-      <c r="L231">
-        <v>50093952386.83334</v>
-      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -7912,9 +7217,6 @@
       <c r="K232">
         <v>1</v>
       </c>
-      <c r="L232">
-        <v>31106038805.62094</v>
-      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -7949,9 +7251,6 @@
       <c r="K233">
         <v>1</v>
       </c>
-      <c r="L233">
-        <v>37720956326.86025</v>
-      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -7983,9 +7282,6 @@
       <c r="I234">
         <v>59</v>
       </c>
-      <c r="L234">
-        <v>33097323323.44062</v>
-      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -8020,9 +7316,6 @@
       <c r="K235">
         <v>1</v>
       </c>
-      <c r="L235">
-        <v>128231071589.5962</v>
-      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -8057,9 +7350,6 @@
       <c r="K236">
         <v>1</v>
       </c>
-      <c r="L236">
-        <v>35760286668.25433</v>
-      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -8094,9 +7384,6 @@
       <c r="K237">
         <v>1</v>
       </c>
-      <c r="L237">
-        <v>41256447003.1338</v>
-      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -8128,9 +7415,6 @@
       <c r="K238">
         <v>1</v>
       </c>
-      <c r="L238">
-        <v>40307459855.92606</v>
-      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -8165,9 +7449,6 @@
       <c r="K239">
         <v>1</v>
       </c>
-      <c r="L239">
-        <v>134598169598.8071</v>
-      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -8196,9 +7477,6 @@
       <c r="I240">
         <v>20</v>
       </c>
-      <c r="L240">
-        <v>36968385127.26666</v>
-      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -8233,9 +7511,6 @@
       <c r="K241">
         <v>1</v>
       </c>
-      <c r="L241">
-        <v>26099479542.37915</v>
-      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -8270,9 +7545,6 @@
       <c r="K242">
         <v>1</v>
       </c>
-      <c r="L242">
-        <v>29397444939.31701</v>
-      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -8304,9 +7576,6 @@
       <c r="I243">
         <v>36</v>
       </c>
-      <c r="L243">
-        <v>40285970358.35122</v>
-      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -8341,9 +7610,6 @@
       <c r="K244">
         <v>1</v>
       </c>
-      <c r="L244">
-        <v>187034167390.9501</v>
-      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -8381,9 +7647,6 @@
       <c r="K245">
         <v>1</v>
       </c>
-      <c r="L245">
-        <v>88804766895.75604</v>
-      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -8418,9 +7681,6 @@
       <c r="K246">
         <v>1</v>
       </c>
-      <c r="L246">
-        <v>32058321740.99435</v>
-      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -8455,9 +7715,6 @@
       <c r="K247">
         <v>1</v>
       </c>
-      <c r="L247">
-        <v>77691132094.86818</v>
-      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -8492,9 +7749,6 @@
       <c r="K248">
         <v>1</v>
       </c>
-      <c r="L248">
-        <v>73330144380.6026</v>
-      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -8532,9 +7786,6 @@
       <c r="K249">
         <v>1</v>
       </c>
-      <c r="L249">
-        <v>73825647437.52303</v>
-      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -8569,9 +7820,6 @@
       <c r="K250">
         <v>1</v>
       </c>
-      <c r="L250">
-        <v>80689241762.38396</v>
-      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -8603,9 +7851,6 @@
       <c r="K251">
         <v>1</v>
       </c>
-      <c r="L251">
-        <v>34298531093.35248</v>
-      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -8640,9 +7885,6 @@
       <c r="K252">
         <v>1</v>
       </c>
-      <c r="L252">
-        <v>54458123368.66435</v>
-      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -8677,9 +7919,6 @@
       <c r="K253">
         <v>1</v>
       </c>
-      <c r="L253">
-        <v>43262464632.48</v>
-      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -8714,9 +7953,6 @@
       <c r="K254">
         <v>1</v>
       </c>
-      <c r="L254">
-        <v>31753732439.18408</v>
-      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -8751,9 +7987,6 @@
       <c r="K255">
         <v>1</v>
       </c>
-      <c r="L255">
-        <v>37960091353.46418</v>
-      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -8788,9 +8021,6 @@
       <c r="K256">
         <v>1</v>
       </c>
-      <c r="L256">
-        <v>23331343432.14286</v>
-      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -8825,9 +8055,6 @@
       <c r="K257">
         <v>1</v>
       </c>
-      <c r="L257">
-        <v>42430139879.03355</v>
-      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -8862,9 +8089,6 @@
       <c r="K258">
         <v>1</v>
       </c>
-      <c r="L258">
-        <v>186533464473.7295</v>
-      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -8890,9 +8114,6 @@
       <c r="I259">
         <v>5</v>
       </c>
-      <c r="L259">
-        <v>8817024774.461538</v>
-      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -8924,9 +8145,6 @@
       <c r="I260">
         <v>38</v>
       </c>
-      <c r="L260">
-        <v>6933981275.5</v>
-      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -8964,9 +8182,6 @@
       <c r="K261">
         <v>1</v>
       </c>
-      <c r="L261">
-        <v>43951136522.87894</v>
-      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -9001,9 +8216,6 @@
       <c r="K262">
         <v>1</v>
       </c>
-      <c r="L262">
-        <v>38020316317.02203</v>
-      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -9026,9 +8238,6 @@
       <c r="I263">
         <v>21</v>
       </c>
-      <c r="L263">
-        <v>6325126321.777778</v>
-      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -9063,9 +8272,6 @@
       <c r="K264">
         <v>1</v>
       </c>
-      <c r="L264">
-        <v>86474375157.36678</v>
-      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -9097,9 +8303,6 @@
       <c r="K265">
         <v>1</v>
       </c>
-      <c r="L265">
-        <v>30431412041.51724</v>
-      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -9128,9 +8331,6 @@
       <c r="I266">
         <v>6</v>
       </c>
-      <c r="L266">
-        <v>7803125477.446809</v>
-      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -9165,9 +8365,6 @@
       <c r="K267">
         <v>1</v>
       </c>
-      <c r="L267">
-        <v>24020488982.29907</v>
-      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -9202,9 +8399,6 @@
       <c r="K268">
         <v>1</v>
       </c>
-      <c r="L268">
-        <v>36054817558.06451</v>
-      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -9230,9 +8424,6 @@
       <c r="I269">
         <v>20</v>
       </c>
-      <c r="L269">
-        <v>2251756128.785047</v>
-      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -9261,9 +8452,6 @@
       <c r="I270">
         <v>13</v>
       </c>
-      <c r="L270">
-        <v>8766848005.464912</v>
-      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -9286,9 +8474,6 @@
       <c r="I271">
         <v>1</v>
       </c>
-      <c r="L271">
-        <v>3451350897.692308</v>
-      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -9320,9 +8505,6 @@
       <c r="K272">
         <v>1</v>
       </c>
-      <c r="L272">
-        <v>29299162746.23809</v>
-      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -9348,9 +8530,6 @@
       <c r="I273">
         <v>7</v>
       </c>
-      <c r="L273">
-        <v>10693979407.66087</v>
-      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -9385,9 +8564,6 @@
       <c r="K274">
         <v>1</v>
       </c>
-      <c r="L274">
-        <v>8304441407.511628</v>
-      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -9422,9 +8598,6 @@
       <c r="K275">
         <v>1</v>
       </c>
-      <c r="L275">
-        <v>17555873229.5082</v>
-      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -9453,9 +8626,6 @@
       <c r="I276">
         <v>22</v>
       </c>
-      <c r="L276">
-        <v>31711490484.19005</v>
-      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -9493,9 +8663,6 @@
       <c r="K277">
         <v>1</v>
       </c>
-      <c r="L277">
-        <v>51277944138.89837</v>
-      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -9521,9 +8688,6 @@
       <c r="I278">
         <v>10</v>
       </c>
-      <c r="L278">
-        <v>1179821616.809524</v>
-      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -9555,9 +8719,6 @@
       <c r="K279">
         <v>1</v>
       </c>
-      <c r="L279">
-        <v>4477574931.226891</v>
-      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -9589,9 +8750,6 @@
       <c r="K280">
         <v>1</v>
       </c>
-      <c r="L280">
-        <v>4159328180.553846</v>
-      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -9617,9 +8775,6 @@
       <c r="I281">
         <v>2</v>
       </c>
-      <c r="L281">
-        <v>2235081533.4375</v>
-      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -9648,9 +8803,6 @@
       <c r="K282">
         <v>1</v>
       </c>
-      <c r="L282">
-        <v>5342147078.986301</v>
-      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -9682,9 +8834,6 @@
       <c r="K283">
         <v>1</v>
       </c>
-      <c r="L283">
-        <v>4508111622</v>
-      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -9719,9 +8868,6 @@
       <c r="K284">
         <v>1</v>
       </c>
-      <c r="L284">
-        <v>9938682027.545454</v>
-      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -9753,9 +8899,6 @@
       <c r="K285">
         <v>1</v>
       </c>
-      <c r="L285">
-        <v>9405987849.61725</v>
-      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -9787,9 +8930,6 @@
       <c r="K286">
         <v>1</v>
       </c>
-      <c r="L286">
-        <v>3627119212.213115</v>
-      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -9818,9 +8958,6 @@
       <c r="J287">
         <v>1</v>
       </c>
-      <c r="L287">
-        <v>2445838258.942529</v>
-      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -9852,9 +8989,6 @@
       <c r="J288">
         <v>1</v>
       </c>
-      <c r="L288">
-        <v>8405637271.029851</v>
-      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -9892,9 +9026,6 @@
       <c r="K289">
         <v>1</v>
       </c>
-      <c r="L289">
-        <v>68625788545.24522</v>
-      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -9926,9 +9057,6 @@
       <c r="J290">
         <v>1</v>
       </c>
-      <c r="L290">
-        <v>784324029.5454546</v>
-      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -9966,9 +9094,6 @@
       <c r="K291">
         <v>1</v>
       </c>
-      <c r="L291">
-        <v>50965643905.92441</v>
-      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -10003,9 +9128,6 @@
       <c r="K292">
         <v>1</v>
       </c>
-      <c r="L292">
-        <v>4829367277.703226</v>
-      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -10031,9 +9153,6 @@
       <c r="I293">
         <v>8</v>
       </c>
-      <c r="L293">
-        <v>8022762559.695035</v>
-      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -10059,9 +9178,6 @@
       <c r="K294">
         <v>1</v>
       </c>
-      <c r="L294">
-        <v>2596282563.228916</v>
-      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -10084,9 +9200,6 @@
       <c r="I295">
         <v>3</v>
       </c>
-      <c r="L295">
-        <v>2213691761.311475</v>
-      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -10109,9 +9222,6 @@
       <c r="I296">
         <v>4</v>
       </c>
-      <c r="L296">
-        <v>1901248803.972973</v>
-      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -10137,9 +9247,6 @@
       <c r="I297">
         <v>4</v>
       </c>
-      <c r="L297">
-        <v>4477425885.569106</v>
-      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -10168,9 +9275,6 @@
       <c r="I298">
         <v>2</v>
       </c>
-      <c r="L298">
-        <v>3269367251.80315</v>
-      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -10202,9 +9306,6 @@
       <c r="I299">
         <v>13</v>
       </c>
-      <c r="L299">
-        <v>4599738090.83871</v>
-      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -10239,9 +9340,6 @@
       <c r="K300">
         <v>1</v>
       </c>
-      <c r="L300">
-        <v>2932397811.111111</v>
-      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -10264,9 +9362,6 @@
       <c r="I301">
         <v>9</v>
       </c>
-      <c r="L301">
-        <v>1300549630.196078</v>
-      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -10295,9 +9390,6 @@
       <c r="J302">
         <v>1</v>
       </c>
-      <c r="L302">
-        <v>4748629722.666667</v>
-      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -10320,9 +9412,6 @@
       <c r="I303">
         <v>2</v>
       </c>
-      <c r="L303">
-        <v>1571687051.734694</v>
-      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -10342,9 +9431,6 @@
       <c r="I304">
         <v>3</v>
       </c>
-      <c r="L304">
-        <v>957181341.6</v>
-      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -10364,9 +9450,6 @@
       <c r="I305">
         <v>4</v>
       </c>
-      <c r="L305">
-        <v>1650320431.95</v>
-      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -10386,9 +9469,6 @@
       <c r="I306">
         <v>2</v>
       </c>
-      <c r="L306">
-        <v>1181211461.654867</v>
-      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -10420,9 +9500,6 @@
       <c r="K307">
         <v>1</v>
       </c>
-      <c r="L307">
-        <v>13391296803.42289</v>
-      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -10448,9 +9525,6 @@
       <c r="I308">
         <v>4</v>
       </c>
-      <c r="L308">
-        <v>5741254096.505376</v>
-      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -10476,9 +9550,6 @@
       <c r="K309">
         <v>1</v>
       </c>
-      <c r="L309">
-        <v>2639471976.48</v>
-      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -10504,9 +9575,6 @@
       <c r="I310">
         <v>4</v>
       </c>
-      <c r="L310">
-        <v>1118324608.72441</v>
-      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -10528,9 +9596,6 @@
       </c>
       <c r="I311">
         <v>2</v>
-      </c>
-      <c r="L311">
-        <v>3088800683.385135</v>
       </c>
     </row>
   </sheetData>
